--- a/docs/画面項目定義書/virtual_machine_management/portfolio_publish_environment_management.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/portfolio_publish_environment_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC1BE80-E16E-4978-A41F-B61069E66F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65693F-36F4-46B7-9B7A-CFA63FBD0208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>日本工学院</t>
   </si>
@@ -39,9 +39,6 @@
     <t>ポートフォリオ公開用環境管理</t>
   </si>
   <si>
-    <t>portfolio_publish_environment_management</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -91,6 +88,16 @@
   </si>
   <si>
     <t>wordpress管理ページへ遷移</t>
+  </si>
+  <si>
+    <t>portfolio_publish_environment_management.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サイドバー</t>
+  </si>
+  <si>
+    <t>Ref(利用者サイドバー)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -343,21 +350,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -394,13 +386,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -467,30 +455,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -684,13 +673,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2980440</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>237600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -940,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
@@ -957,198 +946,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A10" s="21">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A9" s="23">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A11" s="21">
+        <v>3</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A10" s="29">
-        <v>2</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="C11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A12" s="21">
+        <v>4</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A11" s="23">
-        <v>3</v>
-      </c>
-      <c r="B11" s="30" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A13" s="21">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A12" s="29">
-        <v>4</v>
-      </c>
-      <c r="B12" s="30" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A14" s="21">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A13" s="23">
-        <v>5</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="17" ht="14.25"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
     <row r="18" ht="14.25"/>
     <row r="19" ht="14.25"/>
     <row r="20" ht="14.25"/>
@@ -1161,6 +1164,7 @@
     <row r="27" ht="14.25"/>
     <row r="28" ht="14.25"/>
     <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:B5"/>
